--- a/fastexcel-test/src/test/resources/fill/byName.xlsx
+++ b/fastexcel-test/src/test/resources/fill/byName.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\easyexcel\src\test\resources\fill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Documents/GitHub/fastexcel/fastexcel-test/src/test/resources/fill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771DE691-5E3F-49F0-B69D-27A7D8E51998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3518ABC-0379-0345-93DD-F523B067C01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="8620" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>姓名</t>
   </si>
@@ -52,13 +52,45 @@
   </si>
   <si>
     <t>空{.empty}</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{name} is {number} years old this year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\{name\} ignored, {name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty{.empty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignored</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +100,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -96,11 +136,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -410,48 +456,48 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -469,16 +515,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -525,7 +571,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
